--- a/data/trans_orig/P10_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P10_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A062E0F2-D053-4B0E-AA4F-92941BA9806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6B6503-72F9-467F-95C8-6D35E0BB891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8879AB36-3171-41E4-BEEE-29BE97068A2E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{237F5C53-AE8A-43BE-8B23-59CC8BD8B827}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>7,63%</t>
+    <t>7,65%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,12%</t>
   </si>
   <si>
-    <t>92,37%</t>
+    <t>92,35%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -116,19 +116,19 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>96,91%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -191,55 +197,49 @@
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>7,99%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>92,01%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -248,1003 +248,919 @@
     <t>7,32%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>88,26%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>13,14%</t>
@@ -1253,91 +1169,73 @@
     <t>11,26%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>10,25%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>94,61%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>89,75%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E8119B-1BC9-4570-9627-A723716178ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C1AF34-CDE9-435F-A301-73E7680C3269}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2034,7 +1932,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -2043,13 +1941,13 @@
         <v>38435</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -2058,13 +1956,13 @@
         <v>64973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +1977,13 @@
         <v>552117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -2094,13 +1992,13 @@
         <v>537161</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1080</v>
@@ -2109,13 +2007,13 @@
         <v>1089277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,7 +2069,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2183,13 +2081,13 @@
         <v>57591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -2198,13 +2096,13 @@
         <v>73651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -2213,13 +2111,13 @@
         <v>131243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2132,13 @@
         <v>904209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>843</v>
@@ -2249,13 +2147,13 @@
         <v>894742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1684</v>
@@ -2264,13 +2162,13 @@
         <v>1798950</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2391,13 @@
         <v>61131</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2508,13 +2406,13 @@
         <v>107748</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2523,13 +2421,13 @@
         <v>168879</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2442,13 @@
         <v>881091</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>893</v>
@@ -2559,13 +2457,13 @@
         <v>930864</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1825</v>
@@ -2574,13 +2472,13 @@
         <v>1811955</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2546,13 @@
         <v>198239</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>308</v>
@@ -2663,28 +2561,28 @@
         <v>318275</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>504</v>
       </c>
       <c r="N19" s="7">
-        <v>516513</v>
+        <v>516514</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2597,13 @@
         <v>3078305</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2989</v>
@@ -2714,13 +2612,13 @@
         <v>3060923</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6007</v>
@@ -2729,13 +2627,13 @@
         <v>6139227</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2675,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2791,7 +2689,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC8F15-C1DD-42EB-9E41-637A34164667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D41A6-71DF-40F0-83B5-CA9D09EED11A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,13 +2834,13 @@
         <v>8261</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2951,13 +2849,13 @@
         <v>15357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2966,13 +2864,13 @@
         <v>23619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2885,13 @@
         <v>107504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -3002,13 +2900,13 @@
         <v>96548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -3017,13 +2915,13 @@
         <v>204051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +2989,13 @@
         <v>39439</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -3106,13 +3004,13 @@
         <v>89544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -3121,13 +3019,13 @@
         <v>128983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3040,13 @@
         <v>548265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>465</v>
@@ -3157,13 +3055,13 @@
         <v>495601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3172,13 +3070,13 @@
         <v>1043866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3132,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3246,13 +3144,13 @@
         <v>83373</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>147</v>
@@ -3261,13 +3159,13 @@
         <v>162821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -3276,13 +3174,13 @@
         <v>246195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3195,13 @@
         <v>933520</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -3312,28 +3210,28 @@
         <v>869363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
       </c>
       <c r="N11" s="7">
-        <v>1802882</v>
+        <v>1802883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,7 +3273,7 @@
         <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>2049077</v>
+        <v>2049078</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,13 +3299,13 @@
         <v>41168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3416,13 +3314,13 @@
         <v>102244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -3431,13 +3329,13 @@
         <v>143412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3350,13 @@
         <v>716455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3467,13 +3365,13 @@
         <v>673875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1265</v>
@@ -3482,13 +3380,13 @@
         <v>1390330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3454,13 @@
         <v>70421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -3571,13 +3469,13 @@
         <v>150778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -3586,13 +3484,13 @@
         <v>221199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3505,13 @@
         <v>876381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>860</v>
@@ -3622,13 +3520,13 @@
         <v>900178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1703</v>
@@ -3637,13 +3535,13 @@
         <v>1776559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3609,13 @@
         <v>242663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>483</v>
@@ -3726,13 +3624,13 @@
         <v>520744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>703</v>
@@ -3741,13 +3639,13 @@
         <v>763407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3660,13 @@
         <v>3182125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>2813</v>
@@ -3777,13 +3675,13 @@
         <v>3035565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>5800</v>
@@ -3792,13 +3690,13 @@
         <v>6217690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3752,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07CEC92-0FFE-48B1-ABE3-9E76B013D4B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E6C719-C486-4DEE-9B96-6CF74DC4B5B5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +3897,13 @@
         <v>6416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4014,13 +3912,13 @@
         <v>15536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4029,13 +3927,13 @@
         <v>21951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +3948,13 @@
         <v>110130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4065,13 +3963,13 @@
         <v>97824</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -4080,13 +3978,13 @@
         <v>207955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4052,13 @@
         <v>32968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -4169,13 +4067,13 @@
         <v>69405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -4184,13 +4082,13 @@
         <v>102372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4103,13 @@
         <v>525286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -4220,13 +4118,13 @@
         <v>490074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -4235,13 +4133,13 @@
         <v>1015361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4195,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4309,13 +4207,13 @@
         <v>50812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -4324,13 +4222,13 @@
         <v>126107</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4339,13 +4237,13 @@
         <v>176920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4258,13 @@
         <v>971619</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>868</v>
@@ -4375,13 +4273,13 @@
         <v>916806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -4390,13 +4288,13 @@
         <v>1888424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4362,13 @@
         <v>45020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -4479,13 +4377,13 @@
         <v>102398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -4494,13 +4392,13 @@
         <v>147418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4413,13 @@
         <v>714532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -4530,13 +4428,13 @@
         <v>682613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -4545,13 +4443,13 @@
         <v>1397145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4517,13 @@
         <v>70759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -4634,13 +4532,13 @@
         <v>118814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -4649,13 +4547,13 @@
         <v>189573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4568,13 @@
         <v>866808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>854</v>
@@ -4685,13 +4583,13 @@
         <v>924965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>1717</v>
@@ -4700,13 +4598,13 @@
         <v>1791773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4672,13 @@
         <v>205975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>386</v>
@@ -4789,13 +4687,13 @@
         <v>432259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>581</v>
@@ -4804,13 +4702,13 @@
         <v>638234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4723,13 @@
         <v>3188375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>2952</v>
@@ -4840,13 +4738,13 @@
         <v>3112283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>5988</v>
@@ -4855,13 +4753,13 @@
         <v>6300658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3299E3-EACF-40FB-96AF-89A9A6069605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E30378-C03D-46E4-B121-8D142A2C96E0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +4960,13 @@
         <v>5776</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5077,13 +4975,13 @@
         <v>15623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5092,13 +4990,13 @@
         <v>21399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5011,13 @@
         <v>96206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -5128,13 +5026,13 @@
         <v>114436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>319</v>
@@ -5143,13 +5041,13 @@
         <v>210642</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5115,13 @@
         <v>31765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -5232,13 +5130,13 @@
         <v>63014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5247,13 +5145,13 @@
         <v>94780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5166,13 @@
         <v>518058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>885</v>
@@ -5283,13 +5181,13 @@
         <v>529948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>1461</v>
@@ -5298,13 +5196,13 @@
         <v>1048005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,7 +5258,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5372,13 +5270,13 @@
         <v>52903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -5387,13 +5285,13 @@
         <v>119312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -5402,13 +5300,13 @@
         <v>172215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5321,13 @@
         <v>986345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>1334</v>
@@ -5438,13 +5336,13 @@
         <v>939476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>2237</v>
@@ -5453,13 +5351,13 @@
         <v>1925821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5425,13 @@
         <v>63803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -5542,13 +5440,13 @@
         <v>93119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -5557,13 +5455,13 @@
         <v>156922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5476,13 @@
         <v>664969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>922</v>
@@ -5593,13 +5491,13 @@
         <v>781252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>1541</v>
@@ -5608,13 +5506,13 @@
         <v>1446220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5580,13 @@
         <v>55835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>207</v>
@@ -5697,13 +5595,13 @@
         <v>151005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>270</v>
@@ -5712,13 +5610,13 @@
         <v>206840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5631,13 @@
         <v>908282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>1353</v>
@@ -5748,13 +5646,13 @@
         <v>998176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>2294</v>
@@ -5763,13 +5661,13 @@
         <v>1906458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5735,13 @@
         <v>210083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>657</v>
@@ -5852,13 +5750,13 @@
         <v>442073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>881</v>
@@ -5867,13 +5765,13 @@
         <v>652155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5786,13 @@
         <v>3173859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>4702</v>
@@ -5903,13 +5801,13 @@
         <v>3363287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>7852</v>
@@ -5918,13 +5816,13 @@
         <v>6537147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,7 +5878,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P10_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P10_1_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6B6503-72F9-467F-95C8-6D35E0BB891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{989DB53A-13FE-4317-B19D-5AD9486FFB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{237F5C53-AE8A-43BE-8B23-59CC8BD8B827}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{954D744F-6A97-4633-AE1C-D16E08A0BE01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="407">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1032 +107,1068 @@
     <t>97,12%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
     <t>88,52%</t>
   </si>
   <si>
@@ -1166,9 +1202,6 @@
     <t>13,14%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
     <t>8,61%</t>
   </si>
   <si>
@@ -1187,9 +1220,6 @@
     <t>86,86%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
     <t>88,7%</t>
   </si>
   <si>
@@ -1208,9 +1238,6 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
     <t>8,35%</t>
   </si>
   <si>
@@ -1227,9 +1254,6 @@
   </si>
   <si>
     <t>89,75%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
   </si>
   <si>
     <t>90,15%</t>
@@ -1647,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C1AF34-CDE9-435F-A301-73E7680C3269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4F6A6C-DDC2-460D-A5BB-9D11D3F778DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2096,13 +2120,13 @@
         <v>73651</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -2111,10 +2135,10 @@
         <v>131243</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2147,13 +2171,13 @@
         <v>894742</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1684</v>
@@ -2162,13 +2186,13 @@
         <v>1798950</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2415,13 @@
         <v>61131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2406,13 +2430,13 @@
         <v>107748</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2442,13 +2466,13 @@
         <v>881091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>893</v>
@@ -2457,10 +2481,10 @@
         <v>930864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>99</v>
@@ -2543,7 +2567,7 @@
         <v>196</v>
       </c>
       <c r="D19" s="7">
-        <v>198239</v>
+        <v>198238</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>103</v>
@@ -2567,7 +2591,7 @@
         <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>504</v>
@@ -2576,13 +2600,13 @@
         <v>516514</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2621,13 @@
         <v>3078305</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>2989</v>
@@ -2612,13 +2636,13 @@
         <v>3060923</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6007</v>
@@ -2627,13 +2651,13 @@
         <v>6139227</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,7 +2669,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2689,7 +2713,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D41A6-71DF-40F0-83B5-CA9D09EED11A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF2C374-52F0-42F9-9281-6B4ED0DDADC8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2727,7 +2751,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2834,13 +2858,13 @@
         <v>8261</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2849,13 +2873,13 @@
         <v>15357</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2864,13 +2888,13 @@
         <v>23619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2909,13 @@
         <v>107504</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2900,13 +2924,13 @@
         <v>96548</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -2915,7 +2939,7 @@
         <v>204051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>135</v>
@@ -3147,10 +3171,10 @@
         <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>147</v>
@@ -3159,13 +3183,13 @@
         <v>162821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -3174,13 +3198,13 @@
         <v>246195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3219,13 @@
         <v>933520</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -3210,28 +3234,28 @@
         <v>869363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
       </c>
       <c r="N11" s="7">
-        <v>1802883</v>
+        <v>1802882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3297,7 @@
         <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>2049078</v>
+        <v>2049077</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3299,13 +3323,13 @@
         <v>41168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3314,13 +3338,13 @@
         <v>102244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -3329,13 +3353,13 @@
         <v>143412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3374,13 @@
         <v>716455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3365,13 +3389,13 @@
         <v>673875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1265</v>
@@ -3380,13 +3404,13 @@
         <v>1390330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3478,13 @@
         <v>70421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -3469,13 +3493,13 @@
         <v>150778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -3484,13 +3508,13 @@
         <v>221199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3529,13 @@
         <v>876381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>860</v>
@@ -3520,13 +3544,13 @@
         <v>900178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>1703</v>
@@ -3609,13 +3633,13 @@
         <v>242663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>483</v>
@@ -3624,13 +3648,13 @@
         <v>520744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>703</v>
@@ -3639,13 +3663,13 @@
         <v>763407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3684,13 @@
         <v>3182125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2813</v>
@@ -3675,13 +3699,13 @@
         <v>3035565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5800</v>
@@ -3690,13 +3714,13 @@
         <v>6217690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3776,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E6C719-C486-4DEE-9B96-6CF74DC4B5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEBA91C-4E10-41B7-9E53-988F0B3300F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,7 +3814,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3897,13 +3921,13 @@
         <v>6416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3912,13 +3936,13 @@
         <v>15536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3927,13 +3951,13 @@
         <v>21951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3972,13 @@
         <v>110130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -3963,13 +3987,13 @@
         <v>97824</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -3978,13 +4002,13 @@
         <v>207955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4076,13 @@
         <v>32968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -4067,13 +4091,13 @@
         <v>69405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -4082,13 +4106,13 @@
         <v>102372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4127,13 @@
         <v>525286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -4118,13 +4142,13 @@
         <v>490074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -4133,13 +4157,13 @@
         <v>1015361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4231,13 @@
         <v>50812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -4222,13 +4246,13 @@
         <v>126107</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4237,13 +4261,13 @@
         <v>176920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4282,13 @@
         <v>971619</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>868</v>
@@ -4273,13 +4297,13 @@
         <v>916806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -4288,13 +4312,13 @@
         <v>1888424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4386,13 @@
         <v>45020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -4377,13 +4401,13 @@
         <v>102398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -4392,13 +4416,13 @@
         <v>147418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4437,13 @@
         <v>714532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -4428,13 +4452,13 @@
         <v>682613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -4443,13 +4467,13 @@
         <v>1397145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4541,13 @@
         <v>70759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -4532,13 +4556,13 @@
         <v>118814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -4547,13 +4571,13 @@
         <v>189573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4592,13 @@
         <v>866808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>854</v>
@@ -4583,13 +4607,13 @@
         <v>924965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>1717</v>
@@ -4598,13 +4622,13 @@
         <v>1791773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4696,13 @@
         <v>205975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>386</v>
@@ -4687,13 +4711,13 @@
         <v>432259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>581</v>
@@ -4702,13 +4726,13 @@
         <v>638234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4747,13 @@
         <v>3188375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>2952</v>
@@ -4738,13 +4762,13 @@
         <v>3112283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>5988</v>
@@ -4753,13 +4777,13 @@
         <v>6300658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,7 +4839,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E30378-C03D-46E4-B121-8D142A2C96E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B8AFD5-6AC2-4C7D-B297-36A99969ABBD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,7 +4877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4960,13 +4984,13 @@
         <v>5776</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -4975,13 +4999,13 @@
         <v>15623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -4990,13 +5014,13 @@
         <v>21399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5035,13 @@
         <v>96206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -5026,13 +5050,13 @@
         <v>114436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>319</v>
@@ -5041,13 +5065,13 @@
         <v>210642</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5139,13 @@
         <v>31765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -5130,13 +5154,13 @@
         <v>63014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5145,13 +5169,13 @@
         <v>94780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5190,13 @@
         <v>518058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>885</v>
@@ -5181,13 +5205,13 @@
         <v>529948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>1461</v>
@@ -5196,13 +5220,13 @@
         <v>1048005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5294,13 @@
         <v>52903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -5285,13 +5309,13 @@
         <v>119312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -5300,13 +5324,13 @@
         <v>172215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5345,13 @@
         <v>986345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>1334</v>
@@ -5336,13 +5360,13 @@
         <v>939476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>2237</v>
@@ -5351,13 +5375,13 @@
         <v>1925821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5449,13 @@
         <v>63803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -5440,13 +5464,13 @@
         <v>93119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -5455,13 +5479,13 @@
         <v>156922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5500,13 @@
         <v>664969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>922</v>
@@ -5491,13 +5515,13 @@
         <v>781252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1541</v>
@@ -5506,13 +5530,13 @@
         <v>1446220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5604,13 @@
         <v>55835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>207</v>
@@ -5595,10 +5619,10 @@
         <v>151005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>140</v>
@@ -5610,13 +5634,13 @@
         <v>206840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5655,13 @@
         <v>908282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>1353</v>
@@ -5646,13 +5670,13 @@
         <v>998176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>2294</v>
@@ -5661,13 +5685,13 @@
         <v>1906458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5759,13 @@
         <v>210083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>657</v>
@@ -5750,13 +5774,13 @@
         <v>442073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>881</v>
@@ -5765,13 +5789,13 @@
         <v>652155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5810,13 @@
         <v>3173859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>4702</v>
@@ -5801,13 +5825,13 @@
         <v>3363287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>7852</v>
@@ -5816,13 +5840,13 @@
         <v>6537147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5902,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
